--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rln3-Rxfp3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rln3-Rxfp3.xlsx
@@ -558,10 +558,10 @@
         <v>1.568433</v>
       </c>
       <c r="O2">
-        <v>0.520184760538959</v>
+        <v>0.5597564161496535</v>
       </c>
       <c r="P2">
-        <v>0.5201847605389589</v>
+        <v>0.5597564161496534</v>
       </c>
       <c r="Q2">
         <v>0.117683187667</v>
@@ -570,10 +570,10 @@
         <v>1.059148689003</v>
       </c>
       <c r="S2">
-        <v>0.0998852612233164</v>
+        <v>0.1074837636354556</v>
       </c>
       <c r="T2">
-        <v>0.09988526122331637</v>
+        <v>0.1074837636354556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4822376666666667</v>
+        <v>0.4111863333333334</v>
       </c>
       <c r="N3">
-        <v>1.446713</v>
+        <v>1.233559</v>
       </c>
       <c r="O3">
-        <v>0.4798152394610411</v>
+        <v>0.4402435838503465</v>
       </c>
       <c r="P3">
-        <v>0.479815239461041</v>
+        <v>0.4402435838503465</v>
       </c>
       <c r="Q3">
-        <v>0.1085502520536667</v>
+        <v>0.09255681007433333</v>
       </c>
       <c r="R3">
-        <v>0.9769522684830001</v>
+        <v>0.833011290669</v>
       </c>
       <c r="S3">
-        <v>0.09213355362974876</v>
+        <v>0.08453505121760954</v>
       </c>
       <c r="T3">
-        <v>0.09213355362974875</v>
+        <v>0.08453505121760951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,13 +658,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.9471683333333333</v>
+        <v>0.9471683333333334</v>
       </c>
       <c r="H4">
         <v>2.841505</v>
       </c>
       <c r="I4">
-        <v>0.8079811851469348</v>
+        <v>0.807981185146935</v>
       </c>
       <c r="J4">
         <v>0.8079811851469348</v>
@@ -682,22 +682,22 @@
         <v>1.568433</v>
       </c>
       <c r="O4">
-        <v>0.520184760538959</v>
+        <v>0.5597564161496535</v>
       </c>
       <c r="P4">
-        <v>0.5201847605389589</v>
+        <v>0.5597564161496534</v>
       </c>
       <c r="Q4">
         <v>0.4951900235183334</v>
       </c>
       <c r="R4">
-        <v>4.456710211664999</v>
+        <v>4.456710211665</v>
       </c>
       <c r="S4">
-        <v>0.4202994993156426</v>
+        <v>0.452272652514198</v>
       </c>
       <c r="T4">
-        <v>0.4202994993156425</v>
+        <v>0.4522726525141978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,13 +720,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.9471683333333333</v>
+        <v>0.9471683333333334</v>
       </c>
       <c r="H5">
         <v>2.841505</v>
       </c>
       <c r="I5">
-        <v>0.8079811851469348</v>
+        <v>0.807981185146935</v>
       </c>
       <c r="J5">
         <v>0.8079811851469348</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4822376666666667</v>
+        <v>0.4111863333333334</v>
       </c>
       <c r="N5">
-        <v>1.446713</v>
+        <v>1.233559</v>
       </c>
       <c r="O5">
-        <v>0.4798152394610411</v>
+        <v>0.4402435838503465</v>
       </c>
       <c r="P5">
-        <v>0.479815239461041</v>
+        <v>0.4402435838503465</v>
       </c>
       <c r="Q5">
-        <v>0.4567602470072222</v>
+        <v>0.3894626740327778</v>
       </c>
       <c r="R5">
-        <v>4.110842223065</v>
+        <v>3.505164066295</v>
       </c>
       <c r="S5">
-        <v>0.3876816858312923</v>
+        <v>0.355708532632737</v>
       </c>
       <c r="T5">
-        <v>0.3876816858312923</v>
+        <v>0.3557085326327369</v>
       </c>
     </row>
   </sheetData>
